--- a/Test/wwwroot/Uploads/Test2.xlsx
+++ b/Test/wwwroot/Uploads/Test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xBach\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4922AD-0993-47A8-8956-3E1044733C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2109A96C-2EA0-4A3A-A5AB-DCC80F5E0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{424D40D8-262A-4662-B8AB-25102E0DB399}"/>
+    <workbookView xWindow="4455" yWindow="2295" windowWidth="16815" windowHeight="11220" xr2:uid="{424D40D8-262A-4662-B8AB-25102E0DB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6359" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7487" uniqueCount="949">
   <si>
     <t>Kỳ</t>
   </si>
@@ -2467,6 +2467,411 @@
   </si>
   <si>
     <t>N03</t>
+  </si>
+  <si>
+    <t>144115</t>
+  </si>
+  <si>
+    <t>ET3300</t>
+  </si>
+  <si>
+    <t>Kỹ thuật vi xử lý</t>
+  </si>
+  <si>
+    <t>Microprocessors</t>
+  </si>
+  <si>
+    <t>1410-1645</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>145579</t>
+  </si>
+  <si>
+    <t>D3-406</t>
+  </si>
+  <si>
+    <t>145580</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>737449</t>
+  </si>
+  <si>
+    <t>M-T.01</t>
+  </si>
+  <si>
+    <t>737450</t>
+  </si>
+  <si>
+    <t>M-T.02</t>
+  </si>
+  <si>
+    <t>8,13,18</t>
+  </si>
+  <si>
+    <t>737451</t>
+  </si>
+  <si>
+    <t>M-T.03</t>
+  </si>
+  <si>
+    <t>737452</t>
+  </si>
+  <si>
+    <t>M-T.04</t>
+  </si>
+  <si>
+    <t>737453</t>
+  </si>
+  <si>
+    <t>M-T.05</t>
+  </si>
+  <si>
+    <t>737454</t>
+  </si>
+  <si>
+    <t>M-T.06</t>
+  </si>
+  <si>
+    <t>737455</t>
+  </si>
+  <si>
+    <t>M-T.07</t>
+  </si>
+  <si>
+    <t>737456</t>
+  </si>
+  <si>
+    <t>M-T.08</t>
+  </si>
+  <si>
+    <t>737457</t>
+  </si>
+  <si>
+    <t>M-T.09</t>
+  </si>
+  <si>
+    <t>737458</t>
+  </si>
+  <si>
+    <t>M-TN.01</t>
+  </si>
+  <si>
+    <t>737459</t>
+  </si>
+  <si>
+    <t>M-TN.02</t>
+  </si>
+  <si>
+    <t>737460</t>
+  </si>
+  <si>
+    <t>M-TN.03</t>
+  </si>
+  <si>
+    <t>737461</t>
+  </si>
+  <si>
+    <t>M-TN.04</t>
+  </si>
+  <si>
+    <t>737462</t>
+  </si>
+  <si>
+    <t>M-TN.05</t>
+  </si>
+  <si>
+    <t>143957</t>
+  </si>
+  <si>
+    <t>ET3300E</t>
+  </si>
+  <si>
+    <t>Thiết kế hệ thống số 2</t>
+  </si>
+  <si>
+    <t>Digital System Design 2</t>
+  </si>
+  <si>
+    <t>4(4-1-0-8)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>144066</t>
+  </si>
+  <si>
+    <t>ET3302E</t>
+  </si>
+  <si>
+    <t>143817</t>
+  </si>
+  <si>
+    <t>ET3310</t>
+  </si>
+  <si>
+    <t>Lý thuyết mật mã</t>
+  </si>
+  <si>
+    <t>Theory of Cryptography</t>
+  </si>
+  <si>
+    <t>145581</t>
+  </si>
+  <si>
+    <t>D7-105</t>
+  </si>
+  <si>
+    <t>145582</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>145583</t>
+  </si>
+  <si>
+    <t>145584</t>
+  </si>
+  <si>
+    <t>D5-503</t>
+  </si>
+  <si>
+    <t>145585</t>
+  </si>
+  <si>
+    <t>737296</t>
+  </si>
+  <si>
+    <t>MP-1</t>
+  </si>
+  <si>
+    <t>D8-1001</t>
+  </si>
+  <si>
+    <t>737297</t>
+  </si>
+  <si>
+    <t>MP-2</t>
+  </si>
+  <si>
+    <t>737298</t>
+  </si>
+  <si>
+    <t>MP-3</t>
+  </si>
+  <si>
+    <t>737299</t>
+  </si>
+  <si>
+    <t>MP-4</t>
+  </si>
+  <si>
+    <t>737300</t>
+  </si>
+  <si>
+    <t>MP-5</t>
+  </si>
+  <si>
+    <t>737301</t>
+  </si>
+  <si>
+    <t>MP-6</t>
+  </si>
+  <si>
+    <t>737302</t>
+  </si>
+  <si>
+    <t>MP-7</t>
+  </si>
+  <si>
+    <t>737303</t>
+  </si>
+  <si>
+    <t>MP-8</t>
+  </si>
+  <si>
+    <t>737304</t>
+  </si>
+  <si>
+    <t>MP-9</t>
+  </si>
+  <si>
+    <t>737305</t>
+  </si>
+  <si>
+    <t>MP-10</t>
+  </si>
+  <si>
+    <t>737306</t>
+  </si>
+  <si>
+    <t>MC-1</t>
+  </si>
+  <si>
+    <t>737307</t>
+  </si>
+  <si>
+    <t>MC-2</t>
+  </si>
+  <si>
+    <t>737308</t>
+  </si>
+  <si>
+    <t>MC-3</t>
+  </si>
+  <si>
+    <t>737309</t>
+  </si>
+  <si>
+    <t>MC-4</t>
+  </si>
+  <si>
+    <t>737310</t>
+  </si>
+  <si>
+    <t>MC-5</t>
+  </si>
+  <si>
+    <t>737311</t>
+  </si>
+  <si>
+    <t>MC-6</t>
+  </si>
+  <si>
+    <t>737312</t>
+  </si>
+  <si>
+    <t>MC-7</t>
+  </si>
+  <si>
+    <t>737313</t>
+  </si>
+  <si>
+    <t>MC-8</t>
+  </si>
+  <si>
+    <t>737314</t>
+  </si>
+  <si>
+    <t>MC-9</t>
+  </si>
+  <si>
+    <t>737315</t>
+  </si>
+  <si>
+    <t>MC-10</t>
+  </si>
+  <si>
+    <t>737316</t>
+  </si>
+  <si>
+    <t>MC-11</t>
+  </si>
+  <si>
+    <t>737317</t>
+  </si>
+  <si>
+    <t>MC-12</t>
+  </si>
+  <si>
+    <t>737318</t>
+  </si>
+  <si>
+    <t>MC-13</t>
+  </si>
+  <si>
+    <t>737319</t>
+  </si>
+  <si>
+    <t>MC-14</t>
+  </si>
+  <si>
+    <t>737320</t>
+  </si>
+  <si>
+    <t>MC-15</t>
+  </si>
+  <si>
+    <t>737321</t>
+  </si>
+  <si>
+    <t>MC-16</t>
+  </si>
+  <si>
+    <t>737322</t>
+  </si>
+  <si>
+    <t>MC-17</t>
+  </si>
+  <si>
+    <t>737323</t>
+  </si>
+  <si>
+    <t>MC-18</t>
+  </si>
+  <si>
+    <t>737324</t>
+  </si>
+  <si>
+    <t>MC-19</t>
+  </si>
+  <si>
+    <t>737325</t>
+  </si>
+  <si>
+    <t>TNP-1</t>
+  </si>
+  <si>
+    <t>737326</t>
+  </si>
+  <si>
+    <t>TNP-2</t>
+  </si>
+  <si>
+    <t>737327</t>
+  </si>
+  <si>
+    <t>TNP-3</t>
+  </si>
+  <si>
+    <t>144058</t>
+  </si>
+  <si>
+    <t>ET3310E</t>
+  </si>
+  <si>
+    <t>**CTTT-Điện tử - mô đun 1-K66S</t>
+  </si>
+  <si>
+    <t>737328</t>
+  </si>
+  <si>
+    <t>TTP-1</t>
+  </si>
+  <si>
+    <t>737329</t>
+  </si>
+  <si>
+    <t>TTP-2</t>
+  </si>
+  <si>
+    <t>737330</t>
+  </si>
+  <si>
+    <t>TTP-3</t>
+  </si>
+  <si>
+    <t>737331</t>
+  </si>
+  <si>
+    <t>TTP-4</t>
   </si>
 </sst>
 </file>
@@ -2843,10 +3248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFC698B-2C01-41AA-95A4-DF851DB0A2B6}">
-  <dimension ref="A1:X265"/>
+  <dimension ref="A1:X312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:X265"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="N321" sqref="N321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21283,58 +21688,58 @@
         <v>25</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>279</v>
+        <v>814</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>279</v>
+        <v>814</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>283</v>
+        <v>660</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>171</v>
+        <v>818</v>
       </c>
       <c r="M250" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N250" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="O250" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="P250" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q250" s="1" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="R250" s="1" t="s">
         <v>119</v>
       </c>
       <c r="S250" s="1" t="s">
-        <v>285</v>
+        <v>819</v>
       </c>
       <c r="T250" s="1" t="s">
-        <v>286</v>
+        <v>462</v>
       </c>
       <c r="U250" s="1" t="s">
         <v>43</v>
@@ -21346,7 +21751,7 @@
         <v>45</v>
       </c>
       <c r="X250" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.25">
@@ -21357,64 +21762,64 @@
         <v>25</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>287</v>
+        <v>820</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>287</v>
+        <v>820</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L251" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>72</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="Q251" s="1" t="s">
-        <v>292</v>
+        <v>821</v>
       </c>
       <c r="R251" s="1" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="S251" s="1" t="s">
-        <v>102</v>
+        <v>462</v>
       </c>
       <c r="T251" s="1" t="s">
-        <v>102</v>
+        <v>462</v>
       </c>
       <c r="U251" s="1" t="s">
         <v>43</v>
       </c>
       <c r="V251" s="1" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="W251" s="1" t="s">
         <v>45</v>
@@ -21431,64 +21836,64 @@
         <v>25</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>293</v>
+        <v>822</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>293</v>
+        <v>822</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>72</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="Q252" s="1" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="R252" s="1" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="S252" s="1" t="s">
-        <v>144</v>
+        <v>823</v>
       </c>
       <c r="T252" s="1" t="s">
-        <v>102</v>
+        <v>462</v>
       </c>
       <c r="U252" s="1" t="s">
         <v>43</v>
       </c>
       <c r="V252" s="1" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="W252" s="1" t="s">
         <v>45</v>
@@ -21505,25 +21910,25 @@
         <v>25</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>295</v>
+        <v>824</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>295</v>
+        <v>824</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>296</v>
+        <v>825</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>32</v>
@@ -21532,19 +21937,19 @@
         <v>35</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>291</v>
+        <v>507</v>
       </c>
       <c r="Q253" s="1" t="s">
         <v>292</v>
@@ -21553,10 +21958,10 @@
         <v>40</v>
       </c>
       <c r="S253" s="1" t="s">
-        <v>297</v>
+        <v>807</v>
       </c>
       <c r="T253" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U253" s="1" t="s">
         <v>43</v>
@@ -21579,25 +21984,25 @@
         <v>25</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>298</v>
+        <v>826</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>298</v>
+        <v>826</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>299</v>
+        <v>827</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>32</v>
@@ -21606,19 +22011,19 @@
         <v>93</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>291</v>
+        <v>828</v>
       </c>
       <c r="Q254" s="1" t="s">
         <v>292</v>
@@ -21627,10 +22032,10 @@
         <v>40</v>
       </c>
       <c r="S254" s="1" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="T254" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U254" s="1" t="s">
         <v>43</v>
@@ -21653,46 +22058,46 @@
         <v>25</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>300</v>
+        <v>829</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>300</v>
+        <v>829</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>301</v>
+        <v>830</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="O255" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>302</v>
+        <v>828</v>
       </c>
       <c r="Q255" s="1" t="s">
         <v>292</v>
@@ -21701,10 +22106,10 @@
         <v>40</v>
       </c>
       <c r="S255" s="1" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="T255" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U255" s="1" t="s">
         <v>43</v>
@@ -21727,46 +22132,46 @@
         <v>25</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>303</v>
+        <v>831</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>303</v>
+        <v>831</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>304</v>
+        <v>832</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="O256" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>302</v>
+        <v>828</v>
       </c>
       <c r="Q256" s="1" t="s">
         <v>292</v>
@@ -21775,10 +22180,10 @@
         <v>40</v>
       </c>
       <c r="S256" s="1" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="T256" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U256" s="1" t="s">
         <v>43</v>
@@ -21801,46 +22206,46 @@
         <v>25</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>305</v>
+        <v>833</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>305</v>
+        <v>833</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>306</v>
+        <v>834</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="O257" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>302</v>
+        <v>828</v>
       </c>
       <c r="Q257" s="1" t="s">
         <v>292</v>
@@ -21849,10 +22254,10 @@
         <v>40</v>
       </c>
       <c r="S257" s="1" t="s">
-        <v>32</v>
+        <v>807</v>
       </c>
       <c r="T257" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U257" s="1" t="s">
         <v>43</v>
@@ -21875,46 +22280,46 @@
         <v>25</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>307</v>
+        <v>835</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>307</v>
+        <v>835</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>308</v>
+        <v>836</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>302</v>
+        <v>828</v>
       </c>
       <c r="Q258" s="1" t="s">
         <v>292</v>
@@ -21923,10 +22328,10 @@
         <v>40</v>
       </c>
       <c r="S258" s="1" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="T258" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U258" s="1" t="s">
         <v>43</v>
@@ -21949,46 +22354,46 @@
         <v>25</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>309</v>
+        <v>837</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>309</v>
+        <v>837</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>310</v>
+        <v>838</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="O259" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>302</v>
+        <v>828</v>
       </c>
       <c r="Q259" s="1" t="s">
         <v>292</v>
@@ -21997,10 +22402,10 @@
         <v>40</v>
       </c>
       <c r="S259" s="1" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="T259" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U259" s="1" t="s">
         <v>43</v>
@@ -22023,25 +22428,25 @@
         <v>25</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>311</v>
+        <v>839</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>311</v>
+        <v>839</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>84</v>
+        <v>840</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>32</v>
@@ -22050,43 +22455,43 @@
         <v>93</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>38</v>
+        <v>828</v>
       </c>
       <c r="Q260" s="1" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="R260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U260" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V260" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S260" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T260" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U260" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V260" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="W260" s="1" t="s">
         <v>45</v>
       </c>
       <c r="X260" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.25">
@@ -22097,46 +22502,46 @@
         <v>25</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>313</v>
+        <v>841</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>313</v>
+        <v>841</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>314</v>
+        <v>842</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>315</v>
+        <v>828</v>
       </c>
       <c r="Q261" s="1" t="s">
         <v>292</v>
@@ -22145,10 +22550,10 @@
         <v>40</v>
       </c>
       <c r="S261" s="1" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="T261" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U261" s="1" t="s">
         <v>43</v>
@@ -22160,7 +22565,7 @@
         <v>45</v>
       </c>
       <c r="X261" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.25">
@@ -22171,46 +22576,46 @@
         <v>25</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>316</v>
+        <v>843</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>316</v>
+        <v>843</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>317</v>
+        <v>844</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>315</v>
+        <v>507</v>
       </c>
       <c r="Q262" s="1" t="s">
         <v>292</v>
@@ -22219,7 +22624,7 @@
         <v>40</v>
       </c>
       <c r="S262" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="T262" s="1" t="s">
         <v>102</v>
@@ -22245,46 +22650,46 @@
         <v>25</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>318</v>
+        <v>845</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>318</v>
+        <v>845</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>319</v>
+        <v>846</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>315</v>
+        <v>507</v>
       </c>
       <c r="Q263" s="1" t="s">
         <v>292</v>
@@ -22293,7 +22698,7 @@
         <v>40</v>
       </c>
       <c r="S263" s="1" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="T263" s="1" t="s">
         <v>102</v>
@@ -22319,46 +22724,46 @@
         <v>25</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>320</v>
+        <v>847</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>320</v>
+        <v>847</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>321</v>
+        <v>848</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>315</v>
+        <v>507</v>
       </c>
       <c r="Q264" s="1" t="s">
         <v>292</v>
@@ -22367,7 +22772,7 @@
         <v>40</v>
       </c>
       <c r="S264" s="1" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="T264" s="1" t="s">
         <v>102</v>
@@ -22393,46 +22798,46 @@
         <v>25</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>322</v>
+        <v>849</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>322</v>
+        <v>849</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>281</v>
+        <v>816</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>323</v>
+        <v>850</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="O265" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P265" s="1" t="s">
-        <v>315</v>
+        <v>507</v>
       </c>
       <c r="Q265" s="1" t="s">
         <v>292</v>
@@ -22441,7 +22846,7 @@
         <v>40</v>
       </c>
       <c r="S265" s="1" t="s">
-        <v>134</v>
+        <v>450</v>
       </c>
       <c r="T265" s="1" t="s">
         <v>102</v>
@@ -22456,6 +22861,3484 @@
         <v>45</v>
       </c>
       <c r="X265" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q266" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="R266" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S266" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U266" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V266" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W266" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X266" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P267" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S267" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U267" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V267" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W267" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X267" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P268" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q268" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R268" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S268" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U268" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V268" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W268" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X268" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P269" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q269" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R269" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S269" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T269" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U269" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V269" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W269" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X269" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P270" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S270" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="U270" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V270" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W270" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X270" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P271" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U271" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V271" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W271" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X271" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P272" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S272" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U272" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V272" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X272" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P273" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q273" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="R273" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S273" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U273" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V273" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W273" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X273" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P274" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S274" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U274" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V274" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W274" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X274" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P275" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="R275" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S275" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U275" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V275" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W275" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X275" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P276" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R276" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S276" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T276" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U276" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V276" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W276" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X276" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P277" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R277" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S277" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T277" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U277" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V277" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W277" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X277" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P278" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R278" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S278" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T278" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U278" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V278" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W278" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X278" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P279" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R279" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S279" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T279" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U279" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V279" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W279" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X279" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P280" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R280" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S280" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T280" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U280" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V280" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W280" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X280" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P281" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S281" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T281" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U281" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V281" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W281" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X281" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P282" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R282" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S282" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T282" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U282" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V282" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W282" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X282" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P283" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R283" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S283" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T283" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U283" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V283" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W283" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X283" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P284" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R284" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S284" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T284" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U284" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V284" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W284" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X284" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P285" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R285" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S285" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T285" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U285" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V285" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W285" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X285" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P286" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R286" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S286" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T286" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U286" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V286" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W286" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X286" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P287" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R287" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S287" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T287" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U287" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V287" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W287" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X287" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P288" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R288" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S288" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T288" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U288" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V288" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W288" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X288" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P289" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S289" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T289" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U289" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V289" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W289" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X289" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P290" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S290" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T290" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U290" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V290" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W290" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X290" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P291" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T291" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U291" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V291" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W291" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X291" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N292" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P292" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S292" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T292" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U292" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V292" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W292" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X292" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P293" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S293" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T293" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U293" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V293" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W293" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X293" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P294" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S294" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T294" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U294" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V294" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W294" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X294" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P295" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S295" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U295" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V295" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W295" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X295" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N296" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P296" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q296" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R296" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U296" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V296" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W296" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X296" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N297" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P297" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q297" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R297" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U297" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V297" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W297" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X297" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N298" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P298" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q298" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R298" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S298" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T298" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U298" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V298" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W298" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X298" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P299" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q299" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R299" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S299" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T299" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U299" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V299" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W299" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X299" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P300" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q300" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S300" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T300" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U300" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V300" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W300" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X300" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P301" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q301" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S301" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T301" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U301" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V301" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W301" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X301" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O302" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P302" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q302" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R302" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S302" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T302" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U302" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V302" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W302" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X302" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P303" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q303" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R303" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S303" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T303" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U303" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V303" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W303" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X303" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P304" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q304" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R304" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S304" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T304" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U304" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V304" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W304" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X304" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O305" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P305" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q305" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R305" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S305" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T305" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U305" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V305" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W305" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X305" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K306" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O306" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P306" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q306" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R306" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S306" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T306" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U306" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V306" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W306" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X306" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O307" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P307" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q307" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R307" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S307" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T307" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U307" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V307" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W307" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X307" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O308" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P308" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q308" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="R308" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S308" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T308" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U308" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V308" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W308" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X308" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P309" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q309" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R309" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S309" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T309" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U309" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V309" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W309" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X309" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P310" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q310" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R310" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S310" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T310" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U310" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V310" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W310" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X310" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P311" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q311" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R311" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S311" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T311" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U311" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V311" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W311" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X311" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K312" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N312" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P312" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R312" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S312" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T312" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U312" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V312" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W312" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X312" s="1" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Test/wwwroot/Uploads/Test2.xlsx
+++ b/Test/wwwroot/Uploads/Test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xBach\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2109A96C-2EA0-4A3A-A5AB-DCC80F5E0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C4E41-B132-4E78-B336-DDDB74AF2F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2295" windowWidth="16815" windowHeight="11220" xr2:uid="{424D40D8-262A-4662-B8AB-25102E0DB399}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{424D40D8-262A-4662-B8AB-25102E0DB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7487" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="949">
   <si>
     <t>Kỳ</t>
   </si>
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFC698B-2C01-41AA-95A4-DF851DB0A2B6}">
   <dimension ref="A1:X312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="N321" sqref="N321"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="R161" sqref="R161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15051,26 +15051,28 @@
         <v>568</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O160" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="P160" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>40</v>

--- a/Test/wwwroot/Uploads/Test2.xlsx
+++ b/Test/wwwroot/Uploads/Test2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xBach\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C4E41-B132-4E78-B336-DDDB74AF2F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF81380-B19B-4B6E-90F7-0F4820CABFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{424D40D8-262A-4662-B8AB-25102E0DB399}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{424D40D8-262A-4662-B8AB-25102E0DB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7487" uniqueCount="949">
   <si>
     <t>Kỳ</t>
   </si>
@@ -3250,13 +3250,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFC698B-2C01-41AA-95A4-DF851DB0A2B6}">
   <dimension ref="A1:X312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="R161" sqref="R161"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="N321" sqref="N321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>24</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>24</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>24</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>24</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>24</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>24</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>24</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>24</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>24</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>24</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>24</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>24</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>24</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>24</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>24</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>24</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>24</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>24</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>24</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>24</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>24</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>24</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>24</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>24</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>24</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>24</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>24</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>24</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>24</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>24</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>24</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>24</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>24</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>24</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>24</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>24</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>24</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>24</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>24</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>24</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>24</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>24</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>24</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>24</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>24</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>24</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>24</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>24</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>24</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -15051,28 +15051,26 @@
         <v>568</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="O160" s="1"/>
       <c r="P160" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>40</v>
@@ -15096,7 +15094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>24</v>
       </c>
@@ -15170,7 +15168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>24</v>
       </c>
@@ -15244,7 +15242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>24</v>
       </c>
@@ -15318,7 +15316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>24</v>
       </c>
@@ -15392,7 +15390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>24</v>
       </c>
@@ -15466,7 +15464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>24</v>
       </c>
@@ -15540,7 +15538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>24</v>
       </c>
@@ -15614,7 +15612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>24</v>
       </c>
@@ -15688,7 +15686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>24</v>
       </c>
@@ -15762,7 +15760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>24</v>
       </c>
@@ -15836,7 +15834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -15910,7 +15908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>24</v>
       </c>
@@ -15984,7 +15982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>24</v>
       </c>
@@ -16058,7 +16056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>24</v>
       </c>
@@ -16132,7 +16130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>24</v>
       </c>
@@ -16206,7 +16204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>24</v>
       </c>
@@ -16280,7 +16278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>24</v>
       </c>
@@ -16354,7 +16352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>24</v>
       </c>
@@ -16428,7 +16426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>24</v>
       </c>
@@ -16502,7 +16500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>24</v>
       </c>
@@ -16576,7 +16574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>24</v>
       </c>
@@ -16650,7 +16648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>24</v>
       </c>
@@ -16724,7 +16722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>24</v>
       </c>
@@ -16798,7 +16796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>24</v>
       </c>
@@ -16872,7 +16870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>24</v>
       </c>
@@ -16946,7 +16944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>24</v>
       </c>
@@ -17020,7 +17018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>24</v>
       </c>
@@ -17094,7 +17092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>24</v>
       </c>
@@ -17168,7 +17166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>24</v>
       </c>
@@ -17242,7 +17240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>24</v>
       </c>
@@ -17316,7 +17314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>24</v>
       </c>
@@ -17390,7 +17388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>24</v>
       </c>
@@ -17464,7 +17462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
@@ -17538,7 +17536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>24</v>
       </c>
@@ -17612,7 +17610,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>24</v>
       </c>
@@ -17686,7 +17684,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>24</v>
       </c>
@@ -17760,7 +17758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>24</v>
       </c>
@@ -17834,7 +17832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>24</v>
       </c>
@@ -17908,7 +17906,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>24</v>
       </c>
@@ -17982,7 +17980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>24</v>
       </c>
@@ -18056,7 +18054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>24</v>
       </c>
@@ -18130,7 +18128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>24</v>
       </c>
@@ -18204,7 +18202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>24</v>
       </c>
@@ -18278,7 +18276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>24</v>
       </c>
@@ -18352,7 +18350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>24</v>
       </c>
@@ -18426,7 +18424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>24</v>
       </c>
@@ -18500,7 +18498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>24</v>
       </c>
@@ -18574,7 +18572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -18648,7 +18646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>24</v>
       </c>
@@ -18722,7 +18720,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>24</v>
       </c>
@@ -18796,7 +18794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>24</v>
       </c>
@@ -18870,7 +18868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>24</v>
       </c>
@@ -18944,7 +18942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>24</v>
       </c>
@@ -19018,7 +19016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>24</v>
       </c>
@@ -19092,7 +19090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>24</v>
       </c>
@@ -19166,7 +19164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>24</v>
       </c>
@@ -19240,7 +19238,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>24</v>
       </c>
@@ -19314,7 +19312,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>24</v>
       </c>
@@ -19388,7 +19386,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>24</v>
       </c>
@@ -19462,7 +19460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>24</v>
       </c>
@@ -19536,7 +19534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>24</v>
       </c>
@@ -19610,7 +19608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>24</v>
       </c>
@@ -19684,7 +19682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>24</v>
       </c>
@@ -19758,7 +19756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>24</v>
       </c>
@@ -19832,7 +19830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>24</v>
       </c>
@@ -19906,7 +19904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>24</v>
       </c>
@@ -19980,7 +19978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>24</v>
       </c>
@@ -20054,7 +20052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
@@ -20128,7 +20126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>24</v>
       </c>
@@ -20202,7 +20200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>24</v>
       </c>
@@ -20276,7 +20274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>24</v>
       </c>
@@ -20350,7 +20348,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>24</v>
       </c>
@@ -20424,7 +20422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>24</v>
       </c>
@@ -20498,7 +20496,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>24</v>
       </c>
@@ -20572,7 +20570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>24</v>
       </c>
@@ -20646,7 +20644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>24</v>
       </c>
@@ -20720,7 +20718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>24</v>
       </c>
@@ -20794,7 +20792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>24</v>
       </c>
@@ -20868,7 +20866,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>24</v>
       </c>
@@ -20942,7 +20940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>24</v>
       </c>
@@ -21016,7 +21014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>24</v>
       </c>
@@ -21090,7 +21088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>24</v>
       </c>
@@ -21164,7 +21162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>24</v>
       </c>
@@ -21238,7 +21236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>24</v>
       </c>
@@ -21312,7 +21310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -21386,7 +21384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>24</v>
       </c>
@@ -21460,7 +21458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>24</v>
       </c>
@@ -21534,7 +21532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>24</v>
       </c>
@@ -21608,7 +21606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>24</v>
       </c>
@@ -21682,7 +21680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>24</v>
       </c>
@@ -21756,7 +21754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>24</v>
       </c>
@@ -21830,7 +21828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>24</v>
       </c>
@@ -21904,7 +21902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>24</v>
       </c>
@@ -21978,7 +21976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>24</v>
       </c>
@@ -22052,7 +22050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>24</v>
       </c>
@@ -22126,7 +22124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>24</v>
       </c>
@@ -22200,7 +22198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>24</v>
       </c>
@@ -22274,7 +22272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>24</v>
       </c>
@@ -22348,7 +22346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>24</v>
       </c>
@@ -22422,7 +22420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>24</v>
       </c>
@@ -22496,7 +22494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>24</v>
       </c>
@@ -22570,7 +22568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>24</v>
       </c>
@@ -22644,7 +22642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>24</v>
       </c>
@@ -22718,7 +22716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>24</v>
       </c>
@@ -22792,7 +22790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>24</v>
       </c>
@@ -22866,7 +22864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>24</v>
       </c>
@@ -22940,7 +22938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>24</v>
       </c>
@@ -23014,7 +23012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>24</v>
       </c>
@@ -23088,7 +23086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>24</v>
       </c>
@@ -23162,7 +23160,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>24</v>
       </c>
@@ -23236,7 +23234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>24</v>
       </c>
@@ -23310,7 +23308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>24</v>
       </c>
@@ -23384,7 +23382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>24</v>
       </c>
@@ -23458,7 +23456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>24</v>
       </c>
@@ -23532,7 +23530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>24</v>
       </c>
@@ -23606,7 +23604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>24</v>
       </c>
@@ -23680,7 +23678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>24</v>
       </c>
@@ -23754,7 +23752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>24</v>
       </c>
@@ -23828,7 +23826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>24</v>
       </c>
@@ -23902,7 +23900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>24</v>
       </c>
@@ -23976,7 +23974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>24</v>
       </c>
@@ -24050,7 +24048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>24</v>
       </c>
@@ -24124,7 +24122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>24</v>
       </c>
@@ -24198,7 +24196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>24</v>
       </c>
@@ -24272,7 +24270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>24</v>
       </c>
@@ -24346,7 +24344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>24</v>
       </c>
@@ -24420,7 +24418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>24</v>
       </c>
@@ -24494,7 +24492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>24</v>
       </c>
@@ -24568,7 +24566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>24</v>
       </c>
@@ -24642,7 +24640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>24</v>
       </c>
@@ -24716,7 +24714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>24</v>
       </c>
@@ -24790,7 +24788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>24</v>
       </c>
@@ -24864,7 +24862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>24</v>
       </c>
@@ -24938,7 +24936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>24</v>
       </c>
@@ -25012,7 +25010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>24</v>
       </c>
@@ -25086,7 +25084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>24</v>
       </c>
@@ -25160,7 +25158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>24</v>
       </c>
@@ -25234,7 +25232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>24</v>
       </c>
@@ -25308,7 +25306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>24</v>
       </c>
@@ -25382,7 +25380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>24</v>
       </c>
@@ -25456,7 +25454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>24</v>
       </c>
@@ -25530,7 +25528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>24</v>
       </c>
@@ -25604,7 +25602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>24</v>
       </c>
@@ -25678,7 +25676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>24</v>
       </c>
@@ -25752,7 +25750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>24</v>
       </c>
@@ -25826,7 +25824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>24</v>
       </c>
@@ -25900,7 +25898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>24</v>
       </c>
@@ -25974,7 +25972,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>24</v>
       </c>
@@ -26048,7 +26046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>24</v>
       </c>
@@ -26122,7 +26120,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>24</v>
       </c>
@@ -26196,7 +26194,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>24</v>
       </c>
@@ -26270,7 +26268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>24</v>
       </c>
